--- a/Power BI Avançado/Cap05 - DAX - Parte 1/Vendas.xlsx
+++ b/Power BI Avançado/Cap05 - DAX - Parte 1/Vendas.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\Capitulo05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.abreu\Documents\AtividadesCientistaDeDados\Power BI Avançado\Cap05 - DAX - Parte 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FEE9CF-D7D4-44D1-9D91-6E7181C825DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25670" windowHeight="12897" activeTab="1" xr2:uid="{51BBF9D5-9DBD-409D-AFCC-89A1C1F609C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25665" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas 1" sheetId="2" r:id="rId1"/>
     <sheet name="Vendas 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Valor Produto</t>
   </si>
@@ -58,12 +58,18 @@
   </si>
   <si>
     <t>Informática</t>
+  </si>
+  <si>
+    <t>ffffffff</t>
+  </si>
+  <si>
+    <t>ffffffffff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,23 +414,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC52FB7-BBC8-4406-97DF-476C11DAEB3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -438,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -453,7 +459,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -468,7 +474,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -483,7 +489,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -498,7 +504,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>SUM(B2:B5)</f>
         <v>10000</v>
@@ -518,22 +524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECF3FCB-1F27-425B-ACBF-C01FC1AF576A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -547,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -562,7 +568,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -577,7 +583,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -592,7 +598,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -607,7 +613,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>SUM(B2:B5)</f>
         <v>10000</v>
@@ -619,6 +625,31 @@
       <c r="D7">
         <f>SUM(D2:D5)</f>
         <v>30000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D9:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
